--- a/2023年1月考试/自考成绩.xlsx
+++ b/2023年1月考试/自考成绩.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="37">
   <si>
     <t>自考成绩</t>
   </si>
@@ -138,7 +138,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="36">
+  <fonts count="38">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -213,8 +213,23 @@
     </font>
     <font>
       <b/>
+      <sz val="14"/>
+      <color theme="2" tint="-0.9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="2" tint="-0.9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1009,10 +1024,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1021,37 +1036,31 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="24" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1060,98 +1069,104 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="12" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="12" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="13" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="12" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="12" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="13" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1209,13 +1224,16 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1224,19 +1242,19 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1248,43 +1266,43 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2077,7 +2095,7 @@
   <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -2101,11 +2119,11 @@
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" s="4"/>
-      <c r="I1" s="26" t="s">
+      <c r="I1" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="27"/>
-      <c r="K1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="29"/>
     </row>
     <row r="2" ht="23.4" spans="1:11">
       <c r="A2" s="5" t="s">
@@ -2126,13 +2144,13 @@
       <c r="F2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="29" t="s">
+      <c r="I2" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="30" t="s">
+      <c r="J2" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="K2" s="31" t="s">
+      <c r="K2" s="32" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2155,13 +2173,13 @@
       <c r="F3" s="12">
         <v>75</v>
       </c>
-      <c r="I3" s="32">
+      <c r="I3" s="33">
         <v>1</v>
       </c>
-      <c r="J3" s="33" t="s">
+      <c r="J3" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="K3" s="34">
+      <c r="K3" s="35">
         <v>6</v>
       </c>
     </row>
@@ -2184,13 +2202,13 @@
       <c r="F4" s="12">
         <v>90</v>
       </c>
-      <c r="I4" s="32">
+      <c r="I4" s="33">
         <v>2</v>
       </c>
-      <c r="J4" s="35" t="s">
+      <c r="J4" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="K4" s="34">
+      <c r="K4" s="35">
         <v>5</v>
       </c>
     </row>
@@ -2213,13 +2231,13 @@
       <c r="F5" s="12">
         <v>86</v>
       </c>
-      <c r="I5" s="32">
+      <c r="I5" s="33">
         <v>3</v>
       </c>
-      <c r="J5" s="35" t="s">
+      <c r="J5" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="K5" s="34">
+      <c r="K5" s="35">
         <v>6</v>
       </c>
     </row>
@@ -2242,13 +2260,13 @@
       <c r="F6" s="12">
         <v>72</v>
       </c>
-      <c r="I6" s="36">
+      <c r="I6" s="37">
         <v>4</v>
       </c>
-      <c r="J6" s="37" t="s">
+      <c r="J6" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="K6" s="38">
+      <c r="K6" s="39">
         <v>4</v>
       </c>
     </row>
@@ -2297,12 +2315,12 @@
         <v>21</v>
       </c>
       <c r="G8" s="13"/>
-      <c r="I8" s="39" t="s">
+      <c r="I8" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="J8" s="40"/>
-      <c r="K8" s="40"/>
-      <c r="L8" s="41"/>
+      <c r="J8" s="41"/>
+      <c r="K8" s="41"/>
+      <c r="L8" s="42"/>
     </row>
     <row r="9" ht="20.4" spans="1:12">
       <c r="A9" s="8">
@@ -2324,16 +2342,16 @@
         <v>83</v>
       </c>
       <c r="G9" s="13"/>
-      <c r="I9" s="42" t="s">
+      <c r="I9" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="J9" s="43" t="s">
+      <c r="J9" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="K9" s="43" t="s">
+      <c r="K9" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="L9" s="44" t="s">
+      <c r="L9" s="45" t="s">
         <v>25</v>
       </c>
     </row>
@@ -2357,16 +2375,16 @@
         <v>83</v>
       </c>
       <c r="G10" s="13"/>
-      <c r="I10" s="45">
+      <c r="I10" s="46">
         <v>1</v>
       </c>
-      <c r="J10" s="46" t="s">
+      <c r="J10" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="K10" s="47">
+      <c r="K10" s="48">
         <v>44562</v>
       </c>
-      <c r="L10" s="48" t="s">
+      <c r="L10" s="49" t="s">
         <v>27</v>
       </c>
     </row>
@@ -2390,16 +2408,16 @@
         <v>76</v>
       </c>
       <c r="G11" s="13"/>
-      <c r="I11" s="45">
+      <c r="I11" s="46">
         <v>2</v>
       </c>
-      <c r="J11" s="46" t="s">
+      <c r="J11" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="K11" s="47">
+      <c r="K11" s="48">
         <v>44562</v>
       </c>
-      <c r="L11" s="34"/>
+      <c r="L11" s="35"/>
     </row>
     <row r="12" ht="20.4" spans="1:12">
       <c r="A12" s="8">
@@ -2424,16 +2442,16 @@
         <f>SUM(F9:F12)</f>
         <v>304</v>
       </c>
-      <c r="I12" s="45">
+      <c r="I12" s="46">
         <v>3</v>
       </c>
-      <c r="J12" s="46" t="s">
+      <c r="J12" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="K12" s="47">
+      <c r="K12" s="48">
         <v>44562</v>
       </c>
-      <c r="L12" s="34"/>
+      <c r="L12" s="35"/>
     </row>
     <row r="13" ht="20.4" spans="1:12">
       <c r="A13" s="8">
@@ -2454,16 +2472,16 @@
       <c r="F13" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="I13" s="45">
+      <c r="I13" s="46">
         <v>4</v>
       </c>
-      <c r="J13" s="46" t="s">
+      <c r="J13" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="K13" s="47">
+      <c r="K13" s="48">
         <v>44652</v>
       </c>
-      <c r="L13" s="48" t="s">
+      <c r="L13" s="49" t="s">
         <v>32</v>
       </c>
     </row>
@@ -2486,22 +2504,22 @@
       <c r="F14" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="I14" s="45">
+      <c r="I14" s="46">
         <v>5</v>
       </c>
-      <c r="J14" s="46" t="s">
+      <c r="J14" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="K14" s="47">
+      <c r="K14" s="48">
         <v>44652</v>
       </c>
-      <c r="L14" s="34"/>
+      <c r="L14" s="35"/>
     </row>
     <row r="15" ht="20.4" spans="1:12">
       <c r="A15" s="8">
         <v>10</v>
       </c>
-      <c r="B15" s="16" t="s">
+      <c r="B15" s="9" t="s">
         <v>15</v>
       </c>
       <c r="C15" s="17">
@@ -2513,73 +2531,73 @@
       <c r="E15" s="11">
         <v>6</v>
       </c>
-      <c r="F15" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="G15" s="19" t="s">
+      <c r="F15" s="19">
+        <v>77</v>
+      </c>
+      <c r="G15" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="I15" s="45">
+      <c r="I15" s="46">
         <v>6</v>
       </c>
-      <c r="J15" s="46" t="s">
+      <c r="J15" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="K15" s="47">
+      <c r="K15" s="48">
         <v>44652</v>
       </c>
-      <c r="L15" s="34"/>
+      <c r="L15" s="35"/>
     </row>
     <row r="16" ht="21.15" spans="1:12">
-      <c r="A16" s="20">
+      <c r="A16" s="21">
         <v>13</v>
       </c>
-      <c r="B16" s="21" t="s">
+      <c r="B16" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="22">
+      <c r="C16" s="23">
         <v>2023</v>
       </c>
-      <c r="D16" s="23" t="s">
+      <c r="D16" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="E16" s="23">
+      <c r="E16" s="24">
         <v>4</v>
       </c>
-      <c r="F16" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="G16" s="19" t="s">
+      <c r="F16" s="25">
+        <v>78</v>
+      </c>
+      <c r="G16" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="I16" s="49">
+      <c r="I16" s="50">
         <v>7</v>
       </c>
-      <c r="J16" s="50" t="s">
+      <c r="J16" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="K16" s="51">
+      <c r="K16" s="52">
         <v>44652</v>
       </c>
-      <c r="L16" s="38"/>
+      <c r="L16" s="39"/>
     </row>
-    <row r="17" ht="15.15" spans="2:7">
+    <row r="17" spans="2:7">
       <c r="B17" t="s">
         <v>35</v>
       </c>
       <c r="F17" s="13">
         <f>SUM(F3:F16)</f>
-        <v>698</v>
+        <v>853</v>
       </c>
       <c r="G17" s="13"/>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="25" t="s">
+      <c r="A18" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="B18" s="25"/>
-      <c r="C18" s="25"/>
-      <c r="D18" s="25"/>
+      <c r="B18" s="26"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="26"/>
     </row>
   </sheetData>
   <sortState ref="A3:F16">
@@ -2604,7 +2622,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{373a3c39-fe4c-493e-9847-1bceb496acbd}</x14:id>
+          <x14:id>{dca49a29-c28c-438d-9e3e-8ec9c8582879}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -2635,7 +2653,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{0ca8aa9d-5de7-4af6-80a1-f8b40e67f469}</x14:id>
+          <x14:id>{d1f07387-b6b6-4d4d-b218-41ee6f01cd1b}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -2702,7 +2720,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{7ad0e0df-024a-4465-a6f6-9a3b7ca80130}</x14:id>
+          <x14:id>{3d0cbb05-9423-4948-8e2e-414dfc3bd38a}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -2719,7 +2737,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{5806d75b-f900-4e7c-b440-9b26c1b059df}</x14:id>
+          <x14:id>{5fcf5ef7-721c-4a41-9401-228f4a651ed5}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -2769,7 +2787,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{7b938f4a-809f-458f-8827-bdd45c8a68f7}</x14:id>
+          <x14:id>{c5ceae44-3f2c-4076-bc18-f8cd7d98fcd8}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -2838,7 +2856,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{373a3c39-fe4c-493e-9847-1bceb496acbd}">
+          <x14:cfRule type="dataBar" id="{dca49a29-c28c-438d-9e3e-8ec9c8582879}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -2849,7 +2867,7 @@
           <xm:sqref>I1:K1</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{0ca8aa9d-5de7-4af6-80a1-f8b40e67f469}">
+          <x14:cfRule type="dataBar" id="{d1f07387-b6b6-4d4d-b218-41ee6f01cd1b}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -2860,7 +2878,7 @@
           <xm:sqref>J7</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{7ad0e0df-024a-4465-a6f6-9a3b7ca80130}">
+          <x14:cfRule type="dataBar" id="{3d0cbb05-9423-4948-8e2e-414dfc3bd38a}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -2873,7 +2891,7 @@
           <xm:sqref>D3:D16</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{5806d75b-f900-4e7c-b440-9b26c1b059df}">
+          <x14:cfRule type="dataBar" id="{5fcf5ef7-721c-4a41-9401-228f4a651ed5}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -2884,7 +2902,7 @@
           <xm:sqref>E3:E16</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{7b938f4a-809f-458f-8827-bdd45c8a68f7}">
+          <x14:cfRule type="dataBar" id="{c5ceae44-3f2c-4076-bc18-f8cd7d98fcd8}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
